--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123011a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123011a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.333160446525756</v>
+      </c>
+      <c r="C5">
+        <v>1.427198272225235</v>
+      </c>
+      <c r="D5">
+        <v>1.564227189657626</v>
+      </c>
+      <c r="E5">
+        <v>1.637694073017039</v>
+      </c>
+      <c r="F5">
+        <v>1.72748389043391</v>
+      </c>
+      <c r="G5">
+        <v>3.211565756018173</v>
+      </c>
+      <c r="H5">
+        <v>1.797978992744229</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.333160446525756</v>
+        <v>4.992342134336492</v>
       </c>
       <c r="C6">
-        <v>1.427198272225235</v>
+        <v>4.968521422507544</v>
       </c>
       <c r="D6">
-        <v>1.564227189657626</v>
+        <v>6.694034302037999</v>
       </c>
       <c r="E6">
-        <v>1.637694073017039</v>
+        <v>6.38284558874076</v>
       </c>
       <c r="F6">
-        <v>1.72748389043391</v>
+        <v>6.086938187832097</v>
       </c>
       <c r="G6">
-        <v>3.211565756018173</v>
+        <v>12.65189392531179</v>
       </c>
       <c r="H6">
-        <v>1.797978992744229</v>
+        <v>6.14007199102109</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4.992342134336492</v>
+        <v>3.184150547496187</v>
       </c>
       <c r="C7">
-        <v>4.968521422507544</v>
+        <v>3.419588992468723</v>
       </c>
       <c r="D7">
-        <v>6.694034302037999</v>
+        <v>3.726590740346515</v>
       </c>
       <c r="E7">
-        <v>6.38284558874076</v>
+        <v>4.782072042007472</v>
       </c>
       <c r="F7">
-        <v>6.086938187832097</v>
+        <v>3.418921156618563</v>
       </c>
       <c r="G7">
-        <v>12.65189392531179</v>
+        <v>7.198552710569163</v>
       </c>
       <c r="H7">
-        <v>6.14007199102109</v>
+        <v>3.58531601971219</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>7.857903778376256</v>
+      </c>
+      <c r="C8">
+        <v>8.027958728367798</v>
+      </c>
+      <c r="D8">
+        <v>10.00880134166537</v>
+      </c>
+      <c r="E8">
+        <v>11.2565709863799</v>
+      </c>
+      <c r="F8">
+        <v>7.988422979295885</v>
+      </c>
+      <c r="G8">
+        <v>16.1877959281691</v>
+      </c>
+      <c r="H8">
+        <v>8.518994773140536</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.184150547496187</v>
+        <v>7.219340816930757</v>
       </c>
       <c r="C9">
-        <v>3.419588992468723</v>
+        <v>7.256473567813146</v>
       </c>
       <c r="D9">
-        <v>3.726590740346515</v>
+        <v>10.39163350078633</v>
       </c>
       <c r="E9">
-        <v>4.782072042007472</v>
+        <v>10.68626333400941</v>
       </c>
       <c r="F9">
-        <v>3.418921156618563</v>
+        <v>7.012360916674492</v>
       </c>
       <c r="G9">
-        <v>7.198552710569163</v>
+        <v>25.12198848877389</v>
       </c>
       <c r="H9">
-        <v>3.58531601971219</v>
+        <v>7.770185633692846</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>7.857903778376256</v>
+        <v>9.124890213815677</v>
       </c>
       <c r="C10">
-        <v>8.027958728367798</v>
+        <v>9.464234728544739</v>
       </c>
       <c r="D10">
-        <v>10.00880134166537</v>
+        <v>10.23024736875838</v>
       </c>
       <c r="E10">
-        <v>11.2565709863799</v>
+        <v>14.65478028494078</v>
       </c>
       <c r="F10">
-        <v>7.988422979295885</v>
+        <v>8.854321498914418</v>
       </c>
       <c r="G10">
-        <v>16.1877959281691</v>
+        <v>24.90436655963242</v>
       </c>
       <c r="H10">
-        <v>8.518994773140536</v>
+        <v>9.113844929041356</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>7.219340816930757</v>
+        <v>8.727939528599057</v>
       </c>
       <c r="C11">
-        <v>7.256473567813146</v>
+        <v>10.14465812243624</v>
       </c>
       <c r="D11">
-        <v>10.39163350078633</v>
+        <v>11.10717640479236</v>
       </c>
       <c r="E11">
-        <v>10.68626333400941</v>
+        <v>21.33219777345393</v>
       </c>
       <c r="F11">
-        <v>7.012360916674492</v>
+        <v>8.476524372360213</v>
       </c>
       <c r="G11">
-        <v>25.12198848877389</v>
+        <v>25.86873282911068</v>
       </c>
       <c r="H11">
-        <v>7.770185633692846</v>
+        <v>9.424957507789484</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>9.124890213815677</v>
+        <v>4.490590021302832</v>
       </c>
       <c r="C12">
-        <v>9.464234728544739</v>
+        <v>4.931998056411735</v>
       </c>
       <c r="D12">
-        <v>10.23024736875838</v>
+        <v>5.255959545381614</v>
       </c>
       <c r="E12">
-        <v>14.65478028494078</v>
+        <v>7.126528365003676</v>
       </c>
       <c r="F12">
-        <v>8.854321498914418</v>
+        <v>4.897393308265633</v>
       </c>
       <c r="G12">
-        <v>24.90436655963242</v>
+        <v>9.921673650713181</v>
       </c>
       <c r="H12">
-        <v>9.113844929041356</v>
+        <v>5.216751124892852</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>8.727939528599057</v>
+        <v>15.81841673562659</v>
       </c>
       <c r="C13">
-        <v>10.14465812243624</v>
+        <v>16.11927704043909</v>
       </c>
       <c r="D13">
-        <v>11.10717640479236</v>
+        <v>18.6197132292373</v>
       </c>
       <c r="E13">
-        <v>21.33219777345393</v>
+        <v>18.81275132296355</v>
       </c>
       <c r="F13">
-        <v>8.476524372360213</v>
+        <v>17.26891297823812</v>
       </c>
       <c r="G13">
-        <v>25.86873282911068</v>
+        <v>30.47591709191185</v>
       </c>
       <c r="H13">
-        <v>9.424957507789484</v>
+        <v>16.59698558252986</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>4.490590021302832</v>
+        <v>11.6237337797631</v>
       </c>
       <c r="C14">
-        <v>4.931998056411735</v>
+        <v>12.73869395211601</v>
       </c>
       <c r="D14">
-        <v>5.255959545381614</v>
+        <v>12.40304749408162</v>
       </c>
       <c r="E14">
-        <v>7.126528365003676</v>
+        <v>14.70012927595917</v>
       </c>
       <c r="F14">
-        <v>4.897393308265633</v>
+        <v>12.6660915239851</v>
       </c>
       <c r="G14">
-        <v>9.921673650713181</v>
+        <v>26.08681518433675</v>
       </c>
       <c r="H14">
-        <v>5.216751124892852</v>
+        <v>10.9898215506686</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>15.81841673562659</v>
+        <v>2.823979386579376</v>
       </c>
       <c r="C15">
-        <v>16.11927704043909</v>
+        <v>2.86876195346977</v>
       </c>
       <c r="D15">
-        <v>18.6197132292373</v>
+        <v>3.213730954952237</v>
       </c>
       <c r="E15">
-        <v>18.81275132296355</v>
+        <v>3.393960658123913</v>
       </c>
       <c r="F15">
-        <v>17.26891297823812</v>
+        <v>3.167496808988681</v>
       </c>
       <c r="G15">
-        <v>30.47591709191185</v>
+        <v>5.472893652367521</v>
       </c>
       <c r="H15">
-        <v>16.59698558252986</v>
+        <v>3.233154612557724</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>11.6237337797631</v>
+        <v>15.85646591662457</v>
       </c>
       <c r="C16">
-        <v>12.73869395211601</v>
+        <v>15.01900234730555</v>
       </c>
       <c r="D16">
-        <v>12.40304749408162</v>
+        <v>17.58579929220656</v>
       </c>
       <c r="E16">
-        <v>14.70012927595917</v>
+        <v>18.59861935957402</v>
       </c>
       <c r="F16">
-        <v>12.6660915239851</v>
+        <v>16.67399171705028</v>
       </c>
       <c r="G16">
-        <v>26.08681518433675</v>
+        <v>27.06064084119092</v>
       </c>
       <c r="H16">
-        <v>10.9898215506686</v>
+        <v>16.74291133278042</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.823979386579376</v>
+        <v>10.46542813399237</v>
       </c>
       <c r="C17">
-        <v>2.86876195346977</v>
+        <v>10.41519515648417</v>
       </c>
       <c r="D17">
-        <v>3.213730954952237</v>
+        <v>12.52948575302494</v>
       </c>
       <c r="E17">
-        <v>3.393960658123913</v>
+        <v>15.98536545988176</v>
       </c>
       <c r="F17">
-        <v>3.167496808988681</v>
+        <v>10.29330918957699</v>
       </c>
       <c r="G17">
-        <v>5.472893652367521</v>
+        <v>24.56162725884148</v>
       </c>
       <c r="H17">
-        <v>3.233154612557724</v>
+        <v>10.64249838937361</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>15.85646591662457</v>
+        <v>4.305917233501479</v>
       </c>
       <c r="C18">
-        <v>15.01900234730555</v>
+        <v>4.972150998874172</v>
       </c>
       <c r="D18">
-        <v>17.58579929220656</v>
+        <v>4.701402269933608</v>
       </c>
       <c r="E18">
-        <v>18.59861935957402</v>
+        <v>6.441347892533564</v>
       </c>
       <c r="F18">
-        <v>16.67399171705028</v>
+        <v>4.536197117432294</v>
       </c>
       <c r="G18">
-        <v>27.06064084119092</v>
+        <v>19.50987675395088</v>
       </c>
       <c r="H18">
-        <v>16.74291133278042</v>
+        <v>4.293365367509486</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10.46542813399237</v>
+        <v>6.105446365254427</v>
       </c>
       <c r="C19">
-        <v>10.41519515648417</v>
+        <v>7.066426133053192</v>
       </c>
       <c r="D19">
-        <v>12.52948575302494</v>
+        <v>7.521280199733748</v>
       </c>
       <c r="E19">
-        <v>15.98536545988176</v>
+        <v>8.996596946889145</v>
       </c>
       <c r="F19">
-        <v>10.29330918957699</v>
+        <v>7.607882370373564</v>
       </c>
       <c r="G19">
-        <v>24.56162725884148</v>
+        <v>18.06427199048599</v>
       </c>
       <c r="H19">
-        <v>10.64249838937361</v>
+        <v>7.809319945900605</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.305917233501479</v>
+        <v>10.01326434114637</v>
       </c>
       <c r="C20">
-        <v>4.972150998874172</v>
+        <v>12.44473770609446</v>
       </c>
       <c r="D20">
-        <v>4.701402269933608</v>
+        <v>10.0957603602028</v>
       </c>
       <c r="E20">
-        <v>6.441347892533564</v>
+        <v>12.757652659667</v>
       </c>
       <c r="F20">
-        <v>4.536197117432294</v>
+        <v>9.842448083701969</v>
       </c>
       <c r="G20">
-        <v>19.50987675395088</v>
+        <v>18.84244468597602</v>
       </c>
       <c r="H20">
-        <v>4.293365367509486</v>
+        <v>11.06652290347405</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>6.105446365254427</v>
+        <v>4.299432630611729</v>
       </c>
       <c r="C21">
-        <v>7.066426133053192</v>
+        <v>5.439278579045323</v>
       </c>
       <c r="D21">
-        <v>7.521280199733748</v>
+        <v>4.572961710268232</v>
       </c>
       <c r="E21">
-        <v>8.996596946889145</v>
+        <v>5.720136864926818</v>
       </c>
       <c r="F21">
-        <v>7.607882370373564</v>
+        <v>4.714410751808139</v>
       </c>
       <c r="G21">
-        <v>18.06427199048599</v>
+        <v>10.64834951013573</v>
       </c>
       <c r="H21">
-        <v>7.809319945900605</v>
+        <v>4.965873141097916</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>10.01326434114637</v>
+        <v>7.736075098077386</v>
       </c>
       <c r="C22">
-        <v>12.44473770609446</v>
+        <v>9.637294012344622</v>
       </c>
       <c r="D22">
-        <v>10.0957603602028</v>
+        <v>10.21257405991355</v>
       </c>
       <c r="E22">
-        <v>12.757652659667</v>
+        <v>14.52208438692615</v>
       </c>
       <c r="F22">
-        <v>9.842448083701969</v>
+        <v>8.383864322721635</v>
       </c>
       <c r="G22">
-        <v>18.84244468597602</v>
+        <v>26.67617826997652</v>
       </c>
       <c r="H22">
-        <v>11.06652290347405</v>
+        <v>8.658540902197471</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>4.299432630611729</v>
+        <v>6.606962895082678</v>
       </c>
       <c r="C23">
-        <v>5.439278579045323</v>
+        <v>7.274437769439047</v>
       </c>
       <c r="D23">
-        <v>4.572961710268232</v>
+        <v>8.181358342829649</v>
       </c>
       <c r="E23">
-        <v>5.720136864926818</v>
+        <v>12.5809493476282</v>
       </c>
       <c r="F23">
-        <v>4.714410751808139</v>
+        <v>7.777102368275734</v>
       </c>
       <c r="G23">
-        <v>10.64834951013573</v>
+        <v>20.83267095829477</v>
       </c>
       <c r="H23">
-        <v>4.965873141097916</v>
+        <v>8.013424779469043</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>7.736075098077386</v>
+        <v>3.996418427484723</v>
       </c>
       <c r="C24">
-        <v>9.637294012344622</v>
+        <v>4.097042007045662</v>
       </c>
       <c r="D24">
-        <v>10.21257405991355</v>
+        <v>4.849016550255274</v>
       </c>
       <c r="E24">
-        <v>14.52208438692615</v>
+        <v>7.624901123363708</v>
       </c>
       <c r="F24">
-        <v>8.383864322721635</v>
+        <v>3.758086960214784</v>
       </c>
       <c r="G24">
-        <v>26.67617826997652</v>
+        <v>4.841919001301977</v>
       </c>
       <c r="H24">
-        <v>8.658540902197471</v>
+        <v>4.420835562335015</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>6.606962895082678</v>
+        <v>1.960385983801982</v>
       </c>
       <c r="C25">
-        <v>7.274437769439047</v>
+        <v>2.105716924624708</v>
       </c>
       <c r="D25">
-        <v>8.181358342829649</v>
+        <v>2.525416354645119</v>
       </c>
       <c r="E25">
-        <v>12.5809493476282</v>
+        <v>2.552322596139921</v>
       </c>
       <c r="F25">
-        <v>7.777102368275734</v>
+        <v>2.53690035937637</v>
       </c>
       <c r="G25">
-        <v>20.83267095829477</v>
+        <v>5.352241140313031</v>
       </c>
       <c r="H25">
-        <v>8.013424779469043</v>
+        <v>2.679991132599935</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>3.996418427484723</v>
+        <v>3.821855677065706</v>
       </c>
       <c r="C26">
-        <v>4.097042007045662</v>
+        <v>4.242827122544104</v>
       </c>
       <c r="D26">
-        <v>4.849016550255274</v>
+        <v>4.581195666358295</v>
       </c>
       <c r="E26">
-        <v>7.624901123363708</v>
+        <v>5.353346502269941</v>
       </c>
       <c r="F26">
-        <v>3.758086960214784</v>
+        <v>4.034670364101578</v>
       </c>
       <c r="G26">
-        <v>4.841919001301977</v>
+        <v>8.95099215019899</v>
       </c>
       <c r="H26">
-        <v>4.420835562335015</v>
+        <v>4.183318628835482</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>1.960385983801982</v>
+        <v>6.677817393899835</v>
       </c>
       <c r="C27">
-        <v>2.105716924624708</v>
+        <v>8.184292943463591</v>
       </c>
       <c r="D27">
-        <v>2.525416354645119</v>
+        <v>7.875413266408003</v>
       </c>
       <c r="E27">
-        <v>2.552322596139921</v>
+        <v>10.03279068760873</v>
       </c>
       <c r="F27">
-        <v>2.53690035937637</v>
+        <v>7.333543659253089</v>
       </c>
       <c r="G27">
-        <v>5.352241140313031</v>
+        <v>15.36493332107991</v>
       </c>
       <c r="H27">
-        <v>2.679991132599935</v>
+        <v>7.394466203846164</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>3.821855677065706</v>
+        <v>4.031955469067303</v>
       </c>
       <c r="C28">
-        <v>4.242827122544104</v>
+        <v>4.4084073850581</v>
       </c>
       <c r="D28">
-        <v>4.581195666358295</v>
+        <v>4.998632157534541</v>
       </c>
       <c r="E28">
-        <v>5.353346502269941</v>
+        <v>4.961369959948648</v>
       </c>
       <c r="F28">
-        <v>4.034670364101578</v>
+        <v>5.775135280485906</v>
       </c>
       <c r="G28">
-        <v>8.95099215019899</v>
+        <v>10.3220669436642</v>
       </c>
       <c r="H28">
-        <v>4.183318628835482</v>
+        <v>6.320852314503174</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>6.677817393899835</v>
+        <v>2.881739277419811</v>
       </c>
       <c r="C29">
-        <v>8.184292943463591</v>
+        <v>3.021484321948383</v>
       </c>
       <c r="D29">
-        <v>7.875413266408003</v>
+        <v>3.848020944582078</v>
       </c>
       <c r="E29">
-        <v>10.03279068760873</v>
+        <v>3.572679367770621</v>
       </c>
       <c r="F29">
-        <v>7.333543659253089</v>
+        <v>4.271692252476782</v>
       </c>
       <c r="G29">
-        <v>15.36493332107991</v>
+        <v>9.409546858006282</v>
       </c>
       <c r="H29">
-        <v>7.394466203846164</v>
+        <v>4.511801047968614</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.031955469067303</v>
+        <v>2.639724702419448</v>
       </c>
       <c r="C30">
-        <v>4.4084073850581</v>
+        <v>2.792001438595963</v>
       </c>
       <c r="D30">
-        <v>4.998632157534541</v>
+        <v>3.401928901205448</v>
       </c>
       <c r="E30">
-        <v>4.961369959948648</v>
+        <v>3.073299549173743</v>
       </c>
       <c r="F30">
-        <v>5.775135280485906</v>
+        <v>4.516634585445034</v>
       </c>
       <c r="G30">
-        <v>10.3220669436642</v>
+        <v>8.76866134552659</v>
       </c>
       <c r="H30">
-        <v>6.320852314503174</v>
+        <v>5.029087857057141</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>2.881739277419811</v>
+        <v>3.855225929451888</v>
       </c>
       <c r="C31">
-        <v>3.021484321948383</v>
+        <v>4.038954842074468</v>
       </c>
       <c r="D31">
-        <v>3.848020944582078</v>
+        <v>5.278089001613992</v>
       </c>
       <c r="E31">
-        <v>3.572679367770621</v>
+        <v>4.463370306843941</v>
       </c>
       <c r="F31">
-        <v>4.271692252476782</v>
+        <v>6.419688346447754</v>
       </c>
       <c r="G31">
-        <v>9.409546858006282</v>
+        <v>15.77711469106286</v>
       </c>
       <c r="H31">
-        <v>4.511801047968614</v>
+        <v>7.132229833796666</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>2.639724702419448</v>
+        <v>7.706072056390286</v>
       </c>
       <c r="C32">
-        <v>2.792001438595963</v>
+        <v>7.89828394960348</v>
       </c>
       <c r="D32">
-        <v>3.401928901205448</v>
+        <v>9.633723626153582</v>
       </c>
       <c r="E32">
-        <v>3.073299549173743</v>
+        <v>8.752170202186701</v>
       </c>
       <c r="F32">
-        <v>4.516634585445034</v>
+        <v>12.1623103255466</v>
       </c>
       <c r="G32">
-        <v>8.76866134552659</v>
+        <v>22.96351405432434</v>
       </c>
       <c r="H32">
-        <v>5.029087857057141</v>
+        <v>13.05919782756809</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>3.855225929451888</v>
+        <v>3.906878782559177</v>
       </c>
       <c r="C33">
-        <v>4.038954842074468</v>
+        <v>4.180513906394313</v>
       </c>
       <c r="D33">
-        <v>5.278089001613992</v>
+        <v>4.926763493487089</v>
       </c>
       <c r="E33">
-        <v>4.463370306843941</v>
+        <v>4.592539328223896</v>
       </c>
       <c r="F33">
-        <v>6.419688346447754</v>
+        <v>7.419120695216269</v>
       </c>
       <c r="G33">
-        <v>15.77711469106286</v>
+        <v>11.7938798426416</v>
       </c>
       <c r="H33">
-        <v>7.132229833796666</v>
+        <v>8.344936184095607</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>7.706072056390286</v>
+        <v>2.468103423540914</v>
       </c>
       <c r="C34">
-        <v>7.89828394960348</v>
+        <v>2.909384235253529</v>
       </c>
       <c r="D34">
-        <v>9.633723626153582</v>
+        <v>3.287407694915364</v>
       </c>
       <c r="E34">
-        <v>8.752170202186701</v>
+        <v>3.519433661700743</v>
       </c>
       <c r="F34">
-        <v>12.1623103255466</v>
+        <v>3.052577849428435</v>
       </c>
       <c r="G34">
-        <v>22.96351405432434</v>
+        <v>7.425404470150535</v>
       </c>
       <c r="H34">
-        <v>13.05919782756809</v>
+        <v>3.141887215827506</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>3.906878782559177</v>
+        <v>6.865611213360118</v>
       </c>
       <c r="C35">
-        <v>4.180513906394313</v>
+        <v>7.149760147868384</v>
       </c>
       <c r="D35">
-        <v>4.926763493487089</v>
+        <v>9.049351668747137</v>
       </c>
       <c r="E35">
-        <v>4.592539328223896</v>
+        <v>9.679849564304428</v>
       </c>
       <c r="F35">
-        <v>7.419120695216269</v>
+        <v>8.183516477014825</v>
       </c>
       <c r="G35">
-        <v>11.7938798426416</v>
+        <v>22.27233076816028</v>
       </c>
       <c r="H35">
-        <v>8.344936184095607</v>
+        <v>8.522690947085593</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>2.468103423540914</v>
+        <v>5.380664307348428</v>
       </c>
       <c r="C36">
-        <v>2.909384235253529</v>
+        <v>6.895388447913677</v>
       </c>
       <c r="D36">
-        <v>3.287407694915364</v>
+        <v>7.417245802501897</v>
       </c>
       <c r="E36">
-        <v>3.519433661700743</v>
+        <v>8.705075204067491</v>
       </c>
       <c r="F36">
-        <v>3.052577849428435</v>
+        <v>6.98005379307137</v>
       </c>
       <c r="G36">
-        <v>7.425404470150535</v>
+        <v>16.22200947613671</v>
       </c>
       <c r="H36">
-        <v>3.141887215827506</v>
+        <v>7.212907059297264</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>6.865611213360118</v>
+        <v>3.885528969353799</v>
       </c>
       <c r="C37">
-        <v>7.149760147868384</v>
+        <v>4.63542505075777</v>
       </c>
       <c r="D37">
-        <v>9.049351668747137</v>
+        <v>5.148366206207214</v>
       </c>
       <c r="E37">
-        <v>9.679849564304428</v>
+        <v>5.114488759675359</v>
       </c>
       <c r="F37">
-        <v>8.183516477014825</v>
+        <v>4.728577194172594</v>
       </c>
       <c r="G37">
-        <v>22.27233076816028</v>
+        <v>11.57924755870008</v>
       </c>
       <c r="H37">
-        <v>8.522690947085593</v>
+        <v>4.800515130190946</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>5.380664307348428</v>
+        <v>4.480253283048071</v>
       </c>
       <c r="C38">
-        <v>6.895388447913677</v>
+        <v>5.128899838896618</v>
       </c>
       <c r="D38">
-        <v>7.417245802501897</v>
+        <v>5.953832097212762</v>
       </c>
       <c r="E38">
-        <v>8.705075204067491</v>
+        <v>6.388049021610666</v>
       </c>
       <c r="F38">
-        <v>6.98005379307137</v>
+        <v>5.748348297532186</v>
       </c>
       <c r="G38">
-        <v>16.22200947613671</v>
+        <v>12.36920120385503</v>
       </c>
       <c r="H38">
-        <v>7.212907059297264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>3.885528969353799</v>
-      </c>
-      <c r="C39">
-        <v>4.63542505075777</v>
-      </c>
-      <c r="D39">
-        <v>5.148366206207214</v>
-      </c>
-      <c r="E39">
-        <v>5.114488759675359</v>
-      </c>
-      <c r="F39">
-        <v>4.728577194172594</v>
-      </c>
-      <c r="G39">
-        <v>11.57924755870008</v>
-      </c>
-      <c r="H39">
-        <v>4.800515130190946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>4.480253283048071</v>
-      </c>
-      <c r="C40">
-        <v>5.128899838896618</v>
-      </c>
-      <c r="D40">
-        <v>5.953832097212762</v>
-      </c>
-      <c r="E40">
-        <v>6.388049021610666</v>
-      </c>
-      <c r="F40">
-        <v>5.748348297532186</v>
-      </c>
-      <c r="G40">
-        <v>12.36920120385503</v>
-      </c>
-      <c r="H40">
         <v>6.055100491247948</v>
       </c>
     </row>
